--- a/AAII_Financials/Quarterly/TRTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TRTK_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/TRTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TRTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>TRTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,67 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +753,17 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +791,17 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +829,17 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +851,49 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,13 +921,22 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -885,22 +945,31 @@
         <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +997,17 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,22 +1016,25 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>700</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
@@ -962,13 +1043,22 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,13 +1066,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-700</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -991,13 +1081,22 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1108,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1140,17 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1064,22 +1175,31 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1087,31 +1207,40 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-700</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1120,13 +1249,22 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1292,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,22 +1330,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-700</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1207,27 +1363,36 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-700</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1236,13 +1401,22 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1444,17 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1282,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1294,13 +1477,22 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1520,17 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1558,17 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,22 +1596,31 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-700</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -1410,13 +1629,22 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,22 +1672,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-700</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -1468,47 +1705,65 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1775,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1791,11 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1557,13 +1818,22 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,37 +1861,55 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,19 +1937,28 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1678,8 +1975,17 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1693,22 +1999,31 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,48 +2051,66 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>600</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>600</v>
+      </c>
+      <c r="M48" s="3">
+        <v>600</v>
+      </c>
+      <c r="N48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -1791,11 +2124,20 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2165,17 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,16 +2203,25 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -1872,17 +2232,26 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2279,55 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2339,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2355,11 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,8 +2387,17 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,66 +2425,93 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2539,17 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2577,17 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2615,17 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2653,17 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2691,55 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2751,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2783,17 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2821,17 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2859,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2897,55 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-6800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-6700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-6700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-6600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-6000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-5900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-5900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2973,17 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +3011,17 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +3049,55 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,56 +3125,74 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-700</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -2616,13 +3201,22 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3228,11 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +3260,17 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3298,17 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3336,17 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3374,17 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3412,17 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3450,17 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2817,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -2829,16 +3480,25 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3510,49 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3580,17 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3618,55 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3678,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3710,17 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3748,17 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3786,17 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3824,55 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>200</v>
+      </c>
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3900,17 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3174,12 +3930,21 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TRTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TRTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>TRTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,70 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,21 +881,21 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
@@ -890,10 +903,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,13 +946,16 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -944,32 +963,35 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,8 +1044,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1031,34 +1057,37 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>-100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1069,34 +1098,37 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,8 +1182,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1184,11 +1220,14 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1201,8 +1240,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1216,17 +1255,20 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1237,34 +1279,37 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,8 +1387,11 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1351,34 +1402,37 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1392,31 +1446,34 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1465,23 +1525,23 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-300</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-700</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,8 +1674,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1617,34 +1689,37 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,8 +1756,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1693,77 +1771,83 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,8 +1879,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1827,13 +1913,16 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1881,8 +1973,8 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -1894,11 +1986,11 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -1908,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2041,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2082,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2008,22 +2109,25 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2164,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2074,8 +2181,8 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>400</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
@@ -2084,10 +2191,10 @@
         <v>400</v>
       </c>
       <c r="J48" s="3">
+        <v>400</v>
+      </c>
+      <c r="K48" s="3">
         <v>300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>600</v>
       </c>
       <c r="L48" s="3">
         <v>600</v>
@@ -2098,8 +2205,11 @@
       <c r="N48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2112,8 +2222,8 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -2133,11 +2243,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2223,8 +2342,8 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2241,17 +2360,20 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,8 +2410,11 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2303,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>400</v>
@@ -2312,22 +2437,25 @@
         <v>400</v>
       </c>
       <c r="J54" s="3">
+        <v>400</v>
+      </c>
+      <c r="K54" s="3">
         <v>500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>700</v>
       </c>
       <c r="L54" s="3">
         <v>700</v>
       </c>
       <c r="M54" s="3">
+        <v>700</v>
+      </c>
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,8 +2526,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,46 +2567,52 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
       </c>
       <c r="I59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="K59" s="3">
+        <v>300</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>500</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
       </c>
       <c r="N59" s="3">
+        <v>500</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2481,25 +2620,25 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
@@ -2508,10 +2647,13 @@
         <v>600</v>
       </c>
       <c r="N60" s="3">
+        <v>600</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,8 +2854,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2709,25 +2866,25 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
@@ -2736,10 +2893,13 @@
         <v>600</v>
       </c>
       <c r="N66" s="3">
+        <v>600</v>
+      </c>
+      <c r="O66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,8 +3076,11 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2921,31 +3094,34 @@
         <v>-7000</v>
       </c>
       <c r="G72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="H72" s="3">
         <v>-6800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-6700</v>
       </c>
       <c r="I72" s="3">
         <v>-6700</v>
       </c>
       <c r="J72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-5900</v>
       </c>
       <c r="M72" s="3">
         <v>-5900</v>
       </c>
       <c r="N72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="O72" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,13 +3240,16 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
@@ -3073,22 +3258,22 @@
         <v>0</v>
       </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>300</v>
       </c>
       <c r="I76" s="3">
         <v>300</v>
       </c>
       <c r="J76" s="3">
+        <v>300</v>
+      </c>
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>200</v>
       </c>
       <c r="M76" s="3">
         <v>200</v>
@@ -3096,8 +3281,11 @@
       <c r="N76" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,51 +3322,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3189,34 +3383,37 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3477,28 +3693,31 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3524,8 +3744,8 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3534,25 +3754,28 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,19 +3853,22 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3648,11 +3877,11 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -3665,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4157,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3939,12 +4190,15 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TRTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TRTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>TRTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,15 +904,15 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
@@ -906,10 +920,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,16 +966,19 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -966,32 +986,35 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,8 +1071,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1060,11 +1087,11 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>-100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1072,22 +1099,25 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>-100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1101,11 +1131,11 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1113,22 +1143,25 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1223,25 +1260,28 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1258,17 +1298,20 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1282,11 +1325,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1294,22 +1337,25 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,8 +1439,11 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1405,11 +1457,11 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1417,22 +1469,25 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1458,22 +1513,25 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1528,23 +1589,23 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-700</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1677,8 +1747,11 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1692,34 +1765,37 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,8 +1835,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1774,80 +1853,86 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1916,13 +2003,16 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,19 +2052,22 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -1989,11 +2082,11 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2085,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2112,22 +2214,25 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2184,8 +2292,8 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
-        <v>400</v>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
@@ -2194,10 +2302,10 @@
         <v>400</v>
       </c>
       <c r="K48" s="3">
+        <v>400</v>
+      </c>
+      <c r="L48" s="3">
         <v>300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2225,8 +2336,8 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -2246,11 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2345,8 +2465,8 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2363,17 +2483,20 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,8 +2536,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2431,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
@@ -2440,22 +2566,25 @@
         <v>400</v>
       </c>
       <c r="K54" s="3">
+        <v>400</v>
+      </c>
+      <c r="L54" s="3">
         <v>500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>700</v>
       </c>
       <c r="M54" s="3">
         <v>700</v>
       </c>
       <c r="N54" s="3">
+        <v>700</v>
+      </c>
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,8 +2704,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2581,38 +2718,41 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
       </c>
       <c r="L59" s="3">
+        <v>300</v>
+      </c>
+      <c r="M59" s="3">
         <v>600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>500</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
       </c>
       <c r="O59" s="3">
+        <v>500</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2623,25 +2763,25 @@
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
@@ -2650,10 +2790,13 @@
         <v>600</v>
       </c>
       <c r="O60" s="3">
+        <v>600</v>
+      </c>
+      <c r="P60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,8 +3012,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2869,25 +3027,25 @@
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
@@ -2896,10 +3054,13 @@
         <v>600</v>
       </c>
       <c r="O66" s="3">
+        <v>600</v>
+      </c>
+      <c r="P66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,8 +3250,11 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3097,31 +3271,34 @@
         <v>-7000</v>
       </c>
       <c r="H72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-6800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-6700</v>
       </c>
       <c r="J72" s="3">
         <v>-6700</v>
       </c>
       <c r="K72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="L72" s="3">
         <v>-6600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-5900</v>
       </c>
       <c r="N72" s="3">
         <v>-5900</v>
       </c>
       <c r="O72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="P72" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,8 +3426,11 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3252,7 +3438,7 @@
         <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -3261,22 +3447,22 @@
         <v>0</v>
       </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>300</v>
       </c>
       <c r="J76" s="3">
         <v>300</v>
       </c>
       <c r="K76" s="3">
+        <v>300</v>
+      </c>
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>200</v>
       </c>
       <c r="N76" s="3">
         <v>200</v>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,54 +3514,60 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3386,34 +3581,37 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3696,28 +3913,31 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3747,8 +3968,8 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3757,25 +3978,28 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,22 +4083,25 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -3880,11 +4110,11 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4193,12 +4445,15 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TRTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TRTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>TRTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,15 +921,15 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
@@ -923,10 +937,13 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,19 +986,22 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -989,32 +1009,35 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1098,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1090,11 +1117,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>-100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1102,22 +1129,25 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>-100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1134,11 +1164,11 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1146,22 +1176,25 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1263,11 +1300,14 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1301,22 +1341,25 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1328,11 +1371,11 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1340,22 +1383,25 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,13 +1491,16 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1460,11 +1512,11 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1472,27 +1524,30 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1516,22 +1571,25 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,13 +1632,16 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1592,23 +1653,23 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-700</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,13 +1820,16 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1768,34 +1841,37 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,13 +1914,16 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1856,83 +1935,89 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2006,13 +2093,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2085,11 +2178,11 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2217,22 +2319,25 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2295,8 +2403,8 @@
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
-        <v>400</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -2305,10 +2413,10 @@
         <v>400</v>
       </c>
       <c r="L48" s="3">
+        <v>400</v>
+      </c>
+      <c r="M48" s="3">
         <v>300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>600</v>
       </c>
       <c r="N48" s="3">
         <v>600</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2339,8 +2450,8 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -2360,11 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2468,8 +2588,8 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2486,17 +2606,20 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2662,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2560,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>400</v>
@@ -2569,22 +2695,25 @@
         <v>400</v>
       </c>
       <c r="L54" s="3">
+        <v>400</v>
+      </c>
+      <c r="M54" s="3">
         <v>500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>700</v>
       </c>
       <c r="N54" s="3">
         <v>700</v>
       </c>
       <c r="O54" s="3">
+        <v>700</v>
+      </c>
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2721,38 +2858,41 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>300</v>
+      </c>
+      <c r="N59" s="3">
         <v>600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2766,25 +2906,25 @@
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>600</v>
@@ -2793,10 +2933,13 @@
         <v>600</v>
       </c>
       <c r="P60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,13 +3170,16 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>100</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -3030,25 +3188,25 @@
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>600</v>
@@ -3057,10 +3215,13 @@
         <v>600</v>
       </c>
       <c r="P66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3424,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3274,31 +3448,34 @@
         <v>-7000</v>
       </c>
       <c r="I72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J72" s="3">
         <v>-6800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-6700</v>
       </c>
       <c r="K72" s="3">
         <v>-6700</v>
       </c>
       <c r="L72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="M72" s="3">
         <v>-6600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-5900</v>
       </c>
       <c r="O72" s="3">
         <v>-5900</v>
       </c>
       <c r="P72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3612,11 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3441,7 +3627,7 @@
         <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -3450,22 +3636,22 @@
         <v>0</v>
       </c>
       <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>300</v>
       </c>
       <c r="K76" s="3">
         <v>300</v>
       </c>
       <c r="L76" s="3">
+        <v>300</v>
+      </c>
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>200</v>
       </c>
       <c r="O76" s="3">
         <v>200</v>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,62 +3706,68 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3584,34 +3779,37 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3916,28 +4133,31 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3971,8 +4192,8 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3981,25 +4202,28 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,25 +4313,28 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -4113,11 +4343,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4335,41 +4581,44 @@
       <c r="E100" s="3">
         <v>0</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4448,12 +4700,15 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TRTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TRTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>TRTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,26 +951,32 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1022,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1120,34 +1173,40 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>-100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>-100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1167,34 +1226,40 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,11 +1376,17 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1344,22 +1423,28 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1374,34 +1459,40 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,13 +1591,19 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1515,39 +1618,45 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1574,22 +1683,28 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,19 +1750,25 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1656,34 +1777,40 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-700</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,13 +1962,19 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1844,34 +1989,40 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,13 +2068,19 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1938,86 +2095,98 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2096,13 +2269,19 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2181,22 +2366,28 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2322,22 +2525,28 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,46 +2592,52 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>400</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>400</v>
       </c>
       <c r="M48" s="3">
+        <v>400</v>
+      </c>
+      <c r="N48" s="3">
+        <v>400</v>
+      </c>
+      <c r="O48" s="3">
         <v>300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>600</v>
       </c>
       <c r="P48" s="3">
         <v>600</v>
@@ -2430,34 +2645,40 @@
       <c r="Q48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>600</v>
+      </c>
+      <c r="S48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2474,11 +2695,17 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,25 +2804,31 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2609,17 +2848,23 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2689,31 +2940,37 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
       </c>
       <c r="M54" s="3">
+        <v>400</v>
+      </c>
+      <c r="N54" s="3">
+        <v>400</v>
+      </c>
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +3058,14 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,16 +3111,22 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2861,38 +3134,44 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2909,37 +3188,43 @@
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>600</v>
-      </c>
-      <c r="O60" s="3">
-        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>600</v>
       </c>
       <c r="Q60" s="3">
+        <v>600</v>
+      </c>
+      <c r="R60" s="3">
+        <v>600</v>
+      </c>
+      <c r="S60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,13 +3482,19 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -3191,37 +3506,43 @@
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>600</v>
-      </c>
-      <c r="O66" s="3">
-        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>600</v>
       </c>
       <c r="Q66" s="3">
+        <v>600</v>
+      </c>
+      <c r="R66" s="3">
+        <v>600</v>
+      </c>
+      <c r="S66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,16 +3768,22 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="E72" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="F72" s="3">
         <v>-7000</v>
@@ -3451,31 +3798,37 @@
         <v>-7000</v>
       </c>
       <c r="J72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="L72" s="3">
         <v>-6800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3980,14 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3630,40 +4001,46 @@
         <v>-100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
       <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>200</v>
       </c>
       <c r="Q76" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>200</v>
+      </c>
+      <c r="S76" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,65 +4086,77 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3782,34 +4171,40 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4136,13 +4569,13 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -4154,10 +4587,16 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,25 +4614,27 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4205,25 +4646,31 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,13 +4769,19 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4330,11 +4789,11 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -4346,14 +4805,14 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -4363,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4584,41 +5075,47 @@
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4703,12 +5206,18 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>
